--- a/ISA.xlsx
+++ b/ISA.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -155,7 +155,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -204,22 +204,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -242,9 +231,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -527,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:U19"/>
+  <dimension ref="B1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12:U12"/>
+      <selection activeCell="O10" sqref="O10:R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,12 +525,12 @@
     <col min="2" max="2" width="6.140625" style="2" customWidth="1"/>
     <col min="3" max="18" width="8.5703125" style="1"/>
     <col min="19" max="19" width="9.140625" style="1"/>
-    <col min="20" max="1025" width="8.5703125" style="1"/>
-    <col min="1026" max="16384" width="9.140625" style="1"/>
+    <col min="20" max="1024" width="8.5703125" style="1"/>
+    <col min="1025" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
       <c r="C2" s="7" t="s">
         <v>30</v>
@@ -553,7 +539,7 @@
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="3">
         <v>17</v>
@@ -565,55 +551,52 @@
         <v>15</v>
       </c>
       <c r="F3" s="3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G3" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I3" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J3" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K3" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L3" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M3" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N3" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O3" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P3" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q3" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R3" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S3" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T3" s="4">
-        <v>1</v>
-      </c>
-      <c r="U3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
@@ -647,13 +630,12 @@
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="U4" s="7"/>
-    </row>
-    <row r="5" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="T4" s="8"/>
+    </row>
+    <row r="5" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -691,9 +673,8 @@
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-    </row>
-    <row r="6" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
@@ -727,13 +708,12 @@
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="U6" s="7"/>
-    </row>
-    <row r="7" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="T6" s="8"/>
+    </row>
+    <row r="7" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
@@ -771,9 +751,8 @@
       <c r="R7" s="7"/>
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-    </row>
-    <row r="8" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
@@ -807,13 +786,12 @@
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="U8" s="7"/>
-    </row>
-    <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S8" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="T8" s="8"/>
+    </row>
+    <row r="9" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
@@ -851,9 +829,8 @@
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-    </row>
-    <row r="10" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -887,13 +864,12 @@
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="U10" s="7"/>
-    </row>
-    <row r="11" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S10" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="T10" s="8"/>
+    </row>
+    <row r="11" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -931,9 +907,8 @@
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-    </row>
-    <row r="12" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
         <v>10</v>
       </c>
@@ -967,9 +942,8 @@
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-    </row>
-    <row r="13" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
         <v>12</v>
       </c>
@@ -1005,9 +979,8 @@
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-    </row>
-    <row r="14" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
         <v>13</v>
       </c>
@@ -1043,9 +1016,8 @@
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-    </row>
-    <row r="15" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
         <v>14</v>
       </c>
@@ -1079,19 +1051,18 @@
       <c r="P15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="S15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="T15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="U15" s="4" t="s">
+      <c r="T15" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
         <v>18</v>
       </c>
@@ -1125,19 +1096,18 @@
       <c r="P16" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="S16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="T16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="U16" s="4" t="s">
+      <c r="T16" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="4" t="s">
         <v>19</v>
       </c>
@@ -1171,19 +1141,18 @@
       <c r="P17" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="S17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="T17" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="U17" s="4" t="s">
+      <c r="T17" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="4" t="s">
         <v>20</v>
       </c>
@@ -1217,19 +1186,18 @@
       <c r="P18" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="S18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="T18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="U18" s="4" t="s">
+      <c r="T18" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="4" t="s">
         <v>21</v>
       </c>
@@ -1263,57 +1231,60 @@
       <c r="P19" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="S19" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="T19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="U19" s="4" t="s">
+      <c r="T19" s="4" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="S10:T10"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="K4:N4"/>
     <mergeCell ref="O4:R4"/>
-    <mergeCell ref="T4:U4"/>
     <mergeCell ref="G5:J5"/>
     <mergeCell ref="K5:N5"/>
-    <mergeCell ref="P5:U5"/>
+    <mergeCell ref="P5:T5"/>
     <mergeCell ref="G6:J6"/>
     <mergeCell ref="K6:N6"/>
     <mergeCell ref="O6:R6"/>
-    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="S6:T6"/>
     <mergeCell ref="G7:J7"/>
     <mergeCell ref="K7:N7"/>
-    <mergeCell ref="P7:U7"/>
+    <mergeCell ref="P7:T7"/>
     <mergeCell ref="G8:J8"/>
     <mergeCell ref="K8:N8"/>
     <mergeCell ref="O8:R8"/>
-    <mergeCell ref="T8:U8"/>
     <mergeCell ref="G9:J9"/>
     <mergeCell ref="K9:N9"/>
-    <mergeCell ref="P9:U9"/>
+    <mergeCell ref="P9:T9"/>
     <mergeCell ref="G10:J10"/>
     <mergeCell ref="K10:N10"/>
     <mergeCell ref="O10:R10"/>
-    <mergeCell ref="T10:U10"/>
     <mergeCell ref="G11:J11"/>
     <mergeCell ref="K11:N11"/>
-    <mergeCell ref="P11:U11"/>
-    <mergeCell ref="H12:U12"/>
+    <mergeCell ref="P11:T11"/>
+    <mergeCell ref="H12:T12"/>
     <mergeCell ref="G13:J13"/>
-    <mergeCell ref="L13:U13"/>
+    <mergeCell ref="L13:T13"/>
     <mergeCell ref="G14:J14"/>
-    <mergeCell ref="L14:U14"/>
+    <mergeCell ref="L14:T14"/>
     <mergeCell ref="G15:J15"/>
     <mergeCell ref="K15:N15"/>
-    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P19:Q19"/>
     <mergeCell ref="G18:J18"/>
     <mergeCell ref="K18:N18"/>
     <mergeCell ref="G19:J19"/>
@@ -1322,10 +1293,6 @@
     <mergeCell ref="K16:N16"/>
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="K17:N17"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="P19:R19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/ISA.xlsx
+++ b/ISA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enver ASLAN\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\DigitalDesign\CSE315Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,6 @@
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913" iterateDelta="1E-4"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="31">
   <si>
     <t>ADD</t>
   </si>
@@ -155,7 +154,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -204,6 +203,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -223,14 +233,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -516,7 +528,7 @@
   <dimension ref="B1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10:R10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,12 +544,12 @@
     <row r="1" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
@@ -612,28 +624,28 @@
       <c r="F4" s="3">
         <v>0</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7" t="s">
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7" t="s">
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="T4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="T4" s="7"/>
     </row>
     <row r="5" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
@@ -651,28 +663,28 @@
       <c r="F5" s="3">
         <v>1</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7" t="s">
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
       <c r="O5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="P5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
     </row>
     <row r="6" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
@@ -690,28 +702,28 @@
       <c r="F6" s="3">
         <v>0</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7" t="s">
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7" t="s">
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="T6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="T6" s="7"/>
     </row>
     <row r="7" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
@@ -729,28 +741,28 @@
       <c r="F7" s="3">
         <v>1</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7" t="s">
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
       <c r="O7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="P7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
     </row>
     <row r="8" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
@@ -768,28 +780,28 @@
       <c r="F8" s="3">
         <v>0</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7" t="s">
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7" t="s">
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="T8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="T8" s="7"/>
     </row>
     <row r="9" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
@@ -807,28 +819,28 @@
       <c r="F9" s="3">
         <v>1</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7" t="s">
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
       <c r="O9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="P9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
     </row>
     <row r="10" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
@@ -846,28 +858,28 @@
       <c r="F10" s="3">
         <v>0</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7" t="s">
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7" t="s">
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="T10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="T10" s="7"/>
     </row>
     <row r="11" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
@@ -885,28 +897,28 @@
       <c r="F11" s="3">
         <v>1</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7" t="s">
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
       <c r="O11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="P11" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
     </row>
     <row r="12" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
@@ -927,21 +939,21 @@
       <c r="G12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
     </row>
     <row r="13" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
@@ -959,26 +971,26 @@
       <c r="F13" s="3">
         <v>1</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
       <c r="K13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="L13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
     </row>
     <row r="14" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
@@ -996,26 +1008,26 @@
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
       <c r="K14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="L14" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
     </row>
     <row r="15" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
@@ -1033,34 +1045,28 @@
       <c r="F15" s="3">
         <v>1</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7" t="s">
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
       <c r="O15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="P15" s="9" t="s">
+      <c r="P15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="S15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="T15" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="7"/>
     </row>
     <row r="16" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
@@ -1078,32 +1084,32 @@
       <c r="F16" s="3">
         <v>0</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7" t="s">
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
       <c r="O16" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="P16" s="9" t="s">
+      <c r="P16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="6" t="s">
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="S16" s="6" t="s">
+      <c r="S16" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="T16" s="4" t="s">
+      <c r="T16" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1123,32 +1129,32 @@
       <c r="F17" s="3">
         <v>1</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7" t="s">
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
       <c r="O17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="P17" s="9" t="s">
+      <c r="P17" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="6" t="s">
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="S17" s="6" t="s">
+      <c r="S17" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="T17" s="4" t="s">
+      <c r="T17" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1168,32 +1174,32 @@
       <c r="F18" s="3">
         <v>0</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7" t="s">
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
       <c r="O18" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="P18" s="9" t="s">
+      <c r="P18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="6" t="s">
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="S18" s="6" t="s">
+      <c r="S18" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="T18" s="4" t="s">
+      <c r="T18" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1213,32 +1219,32 @@
       <c r="F19" s="3">
         <v>1</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7" t="s">
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
       <c r="O19" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="P19" s="9" t="s">
+      <c r="P19" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="6" t="s">
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="S19" s="6" t="s">
+      <c r="S19" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="T19" s="4" t="s">
+      <c r="T19" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1280,19 +1286,19 @@
     <mergeCell ref="L14:T14"/>
     <mergeCell ref="G15:J15"/>
     <mergeCell ref="K15:N15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="P15:T15"/>
+    <mergeCell ref="P16:T16"/>
+    <mergeCell ref="P17:T17"/>
     <mergeCell ref="G18:J18"/>
     <mergeCell ref="K18:N18"/>
     <mergeCell ref="G19:J19"/>
     <mergeCell ref="K19:N19"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="P18:T18"/>
+    <mergeCell ref="P19:T19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
